--- a/facturas_consolidadas.xlsx
+++ b/facturas_consolidadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Numero_de_factura</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Indra BPO Servicios S.L.U.</t>
   </si>
   <si>
-    <t>V84175744</t>
+    <t>B- 90009762</t>
   </si>
   <si>
     <t>ESV84175744</t>
@@ -73,19 +73,16 @@
     <t>950</t>
   </si>
   <si>
-    <t>111.47</t>
-  </si>
-  <si>
-    <t>21,00</t>
+    <t>111,47</t>
+  </si>
+  <si>
+    <t>199,50</t>
   </si>
   <si>
     <t>19,35</t>
   </si>
   <si>
-    <t>1149.5</t>
-  </si>
-  <si>
-    <t>130.82</t>
+    <t>1149.50</t>
   </si>
   <si>
     <t>TDA 22</t>
@@ -519,13 +516,13 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -548,16 +545,16 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/facturas_consolidadas.xlsx
+++ b/facturas_consolidadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Numero_de_factura</t>
   </si>
@@ -46,58 +46,61 @@
     <t>Archivo</t>
   </si>
   <si>
-    <t>17/2024</t>
+    <t>NDD – 2013/612</t>
   </si>
   <si>
     <t>53469006B</t>
   </si>
   <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>30.04.2023</t>
-  </si>
-  <si>
-    <t>Andalex Servicios Jurídicos, S.L.</t>
+    <t>27 de marzo de 2025</t>
+  </si>
+  <si>
+    <t>16.04.2022</t>
+  </si>
+  <si>
+    <t>GESTIONES PROFESIONALES</t>
   </si>
   <si>
     <t>Indra BPO Servicios S.L.U.</t>
   </si>
   <si>
-    <t>B- 90009762</t>
-  </si>
-  <si>
-    <t>ESV84175744</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>111,47</t>
-  </si>
-  <si>
-    <t>199,50</t>
-  </si>
-  <si>
-    <t>19,35</t>
-  </si>
-  <si>
-    <t>1149.50</t>
-  </si>
-  <si>
-    <t>TDA 22</t>
-  </si>
-  <si>
-    <t>52000154118523</t>
-  </si>
-  <si>
-    <t>52000154129694</t>
-  </si>
-  <si>
-    <t>17-2024 ANDALEX TDA 22.pdf</t>
-  </si>
-  <si>
-    <t>730424680063 INDRA TDA 22.pdf</t>
+    <t>V85167864</t>
+  </si>
+  <si>
+    <t>ESB60096435</t>
+  </si>
+  <si>
+    <t>224,06</t>
+  </si>
+  <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>47,05</t>
+  </si>
+  <si>
+    <t>42,00</t>
+  </si>
+  <si>
+    <t>271,11</t>
+  </si>
+  <si>
+    <t>242,00</t>
+  </si>
+  <si>
+    <t>TDA 28</t>
+  </si>
+  <si>
+    <t>5200.015.422586</t>
+  </si>
+  <si>
+    <t>52000154293284</t>
+  </si>
+  <si>
+    <t>2025-28 QUISARGO TDA 28.pdf</t>
+  </si>
+  <si>
+    <t>730425601668 INDRA TDA 28.pdf</t>
   </si>
 </sst>
 </file>
@@ -516,13 +519,13 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -545,16 +548,16 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
